--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H2">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I2">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J2">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N2">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q2">
-        <v>371.0051305154475</v>
+        <v>404.8116823716533</v>
       </c>
       <c r="R2">
-        <v>3339.046174639028</v>
+        <v>3643.30514134488</v>
       </c>
       <c r="S2">
-        <v>0.007705875645123952</v>
+        <v>0.007884243511687436</v>
       </c>
       <c r="T2">
-        <v>0.00770587564512395</v>
+        <v>0.007884243511687438</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H3">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I3">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J3">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.262762</v>
       </c>
       <c r="O3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q3">
-        <v>0.8098578167835556</v>
+        <v>0.7502642897175555</v>
       </c>
       <c r="R3">
-        <v>7.288720351052</v>
+        <v>6.752378607458</v>
       </c>
       <c r="S3">
-        <v>1.682096314327334E-05</v>
+        <v>1.461239044189856E-05</v>
       </c>
       <c r="T3">
-        <v>1.682096314327333E-05</v>
+        <v>1.461239044189856E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H4">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I4">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J4">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N4">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q4">
-        <v>15.822517200672</v>
+        <v>5.762782432245666</v>
       </c>
       <c r="R4">
-        <v>142.402654806048</v>
+        <v>51.865041890211</v>
       </c>
       <c r="S4">
-        <v>0.0003286379079766837</v>
+        <v>0.0001122378181738977</v>
       </c>
       <c r="T4">
-        <v>0.0003286379079766836</v>
+        <v>0.0001122378181738977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H5">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I5">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J5">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N5">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q5">
-        <v>87.93761207524844</v>
+        <v>57.98169081356788</v>
       </c>
       <c r="R5">
-        <v>791.438508677236</v>
+        <v>521.8352173221109</v>
       </c>
       <c r="S5">
-        <v>0.001826487688295728</v>
+        <v>0.001129270200196057</v>
       </c>
       <c r="T5">
-        <v>0.001826487688295728</v>
+        <v>0.001129270200196057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H6">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I6">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J6">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N6">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q6">
-        <v>36296.30381328594</v>
+        <v>42749.40021447267</v>
       </c>
       <c r="R6">
-        <v>326666.7343195734</v>
+        <v>384744.601930254</v>
       </c>
       <c r="S6">
-        <v>0.7538839238536461</v>
+        <v>0.8326011722162868</v>
       </c>
       <c r="T6">
-        <v>0.753883923853646</v>
+        <v>0.8326011722162868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H7">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I7">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J7">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.262762</v>
       </c>
       <c r="O7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q7">
         <v>79.23029345362779</v>
       </c>
       <c r="R7">
-        <v>713.0726410826502</v>
+        <v>713.0726410826501</v>
       </c>
       <c r="S7">
-        <v>0.001645634355061603</v>
+        <v>0.001543114871169535</v>
       </c>
       <c r="T7">
-        <v>0.001645634355061602</v>
+        <v>0.001543114871169535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H8">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I8">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J8">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N8">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q8">
-        <v>1547.9540420604</v>
+        <v>608.5681398859084</v>
       </c>
       <c r="R8">
-        <v>13931.5863785436</v>
+        <v>5477.113258973175</v>
       </c>
       <c r="S8">
-        <v>0.03215141886558832</v>
+        <v>0.01185267030883284</v>
       </c>
       <c r="T8">
-        <v>0.0321514188655883</v>
+        <v>0.01185267030883284</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H9">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I9">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J9">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N9">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q9">
-        <v>8603.143250508774</v>
+        <v>6123.05082496452</v>
       </c>
       <c r="R9">
-        <v>77428.28925457897</v>
+        <v>55107.45742468067</v>
       </c>
       <c r="S9">
-        <v>0.1786895829540227</v>
+        <v>0.1192545221413289</v>
       </c>
       <c r="T9">
-        <v>0.1786895829540226</v>
+        <v>0.1192545221413289</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H10">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I10">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J10">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N10">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O10">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P10">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q10">
-        <v>875.7098801750551</v>
+        <v>1106.209481204133</v>
       </c>
       <c r="R10">
-        <v>7881.388921575496</v>
+        <v>9955.8853308372</v>
       </c>
       <c r="S10">
-        <v>0.01818872808702143</v>
+        <v>0.02154489434112621</v>
       </c>
       <c r="T10">
-        <v>0.01818872808702142</v>
+        <v>0.02154489434112621</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H11">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I11">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J11">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.262762</v>
       </c>
       <c r="O11">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P11">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q11">
-        <v>1.911565187007111</v>
+        <v>2.050211263252222</v>
       </c>
       <c r="R11">
-        <v>17.204086683064</v>
+        <v>18.45190136927</v>
       </c>
       <c r="S11">
-        <v>3.970371945573833E-05</v>
+        <v>3.993057896744321E-05</v>
       </c>
       <c r="T11">
-        <v>3.970371945573831E-05</v>
+        <v>3.99305789674432E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H12">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I12">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J12">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N12">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O12">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P12">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q12">
-        <v>37.347016259904</v>
+        <v>15.74767933405167</v>
       </c>
       <c r="R12">
-        <v>336.123146339136</v>
+        <v>141.729114006465</v>
       </c>
       <c r="S12">
-        <v>0.000775707501983614</v>
+        <v>0.0003067069060018939</v>
       </c>
       <c r="T12">
-        <v>0.0007757075019836136</v>
+        <v>0.0003067069060018939</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H13">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I13">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J13">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N13">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O13">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P13">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q13">
-        <v>207.5654199884169</v>
+        <v>158.4437873394405</v>
       </c>
       <c r="R13">
-        <v>1868.088779895752</v>
+        <v>1425.994086054965</v>
       </c>
       <c r="S13">
-        <v>0.004311189207643771</v>
+        <v>0.003085902548512131</v>
       </c>
       <c r="T13">
-        <v>0.004311189207643769</v>
+        <v>0.003085902548512131</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H14">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I14">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J14">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N14">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O14">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P14">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q14">
-        <v>16.386764933786</v>
+        <v>27.93364726661334</v>
       </c>
       <c r="R14">
-        <v>147.480884404074</v>
+        <v>251.4028253995201</v>
       </c>
       <c r="S14">
-        <v>0.0003403574840870699</v>
+        <v>0.0005440447665177946</v>
       </c>
       <c r="T14">
-        <v>0.0003403574840870699</v>
+        <v>0.0005440447665177946</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H15">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I15">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J15">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.262762</v>
       </c>
       <c r="O15">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P15">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q15">
-        <v>0.035770259174</v>
+        <v>0.05177127770355557</v>
       </c>
       <c r="R15">
-        <v>0.321932332566</v>
+        <v>0.4659414993320001</v>
       </c>
       <c r="S15">
-        <v>7.429578362049668E-07</v>
+        <v>1.008314181879967E-06</v>
       </c>
       <c r="T15">
-        <v>7.429578362049666E-07</v>
+        <v>1.008314181879966E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H16">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I16">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J16">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N16">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O16">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P16">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q16">
-        <v>0.6988579097759999</v>
+        <v>0.3976553512326667</v>
       </c>
       <c r="R16">
-        <v>6.289721187984</v>
+        <v>3.578898161094</v>
       </c>
       <c r="S16">
-        <v>1.451546542998785E-05</v>
+        <v>7.744864487298906E-06</v>
       </c>
       <c r="T16">
-        <v>1.451546542998785E-05</v>
+        <v>7.744864487298904E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H17">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I17">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J17">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N17">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O17">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P17">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q17">
-        <v>3.884078303481999</v>
+        <v>4.00097173485489</v>
       </c>
       <c r="R17">
-        <v>34.956704731338</v>
+        <v>36.008745613694</v>
       </c>
       <c r="S17">
-        <v>8.067334368388228E-05</v>
+        <v>7.79242220880713E-05</v>
       </c>
       <c r="T17">
-        <v>8.067334368388226E-05</v>
+        <v>7.79242220880713E-05</v>
       </c>
     </row>
   </sheetData>
